--- a/nmadb/501237.xlsx
+++ b/nmadb/501237.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12435"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>CASABURI, 2002</t>
   </si>
@@ -105,19 +105,10 @@
     <t>BATEMAN 2010b</t>
   </si>
   <si>
-    <t>ta</t>
-  </si>
-  <si>
-    <t>tc</t>
-  </si>
-  <si>
     <t>treatments</t>
   </si>
   <si>
     <t>se</t>
-  </si>
-  <si>
-    <t>md</t>
   </si>
   <si>
     <t>Unclear from Supplementary if these are the correct data!</t>
@@ -149,12 +140,24 @@
   <si>
     <t>Beneficial</t>
   </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>effect=md</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,14 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -297,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,41 +512,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -558,125 +555,125 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>153</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>92</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>23</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>92</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>86</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -685,24 +682,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>21</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -711,24 +708,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>137</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -737,24 +734,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>85</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>20</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -763,24 +760,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>120</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>16</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -789,24 +786,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>90</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>16</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -815,24 +812,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>103</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -841,24 +838,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>124</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -867,24 +864,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>110</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>20</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -893,24 +890,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>180</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>20</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -919,207 +916,210 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>60</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>19</v>
       </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>160</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>19</v>
       </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>140</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="F19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>140</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>21</v>
       </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>140</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>18</v>
       </c>
-      <c r="F21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>160</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>19</v>
       </c>
-      <c r="F22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>180</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>18</v>
       </c>
-      <c r="F23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>113</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>17</v>
       </c>
-      <c r="F24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>84</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>22</v>
       </c>
-      <c r="F25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>134</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>19</v>
       </c>
-      <c r="F26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="I3">
     <cfRule type="expression" priority="1" stopIfTrue="1">
@@ -1127,7 +1127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$L3&lt;&gt;$O3</formula>
     </cfRule>
   </conditionalFormatting>
